--- a/biology/Zoologie/Çukurova_(cheval)/Çukurova_(cheval).xlsx
+++ b/biology/Zoologie/Çukurova_(cheval)/Çukurova_(cheval).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%87ukurova_(cheval)</t>
+          <t>Çukurova_(cheval)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Çukurova est une race de chevaux de selle et de traction légère originaire de la région du même nom, en Turquie. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%87ukurova_(cheval)</t>
+          <t>Çukurova_(cheval)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Çukurova forme une race indigène à l'Anatolie, issue de croisements entre le cheval arabe turc et le cheval circassien[1], complétés par l'influence du poney anatolien[2]. La formation de la race est estimée remonter à 1894, sous l'Empire ottoman[3], dans un haras du même nom[4]. Un type plus grand, toisant 1,50 m à 1,54 m, a été développé pour la Première Guerre mondiale, mais ce type de la race est désormais perdu[3]. Un nouveau type, plus petit, a été développé à partir de 1935[3].
-En 2003, le Çukurova a été reconnu en danger d'extinction[1]. Il n'existe en 2007 ni registre généalogique formel ni association de race, mais les éleveurs espèrent que le gouvernement turc reconnaîtra bientôt officiellement la race[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Çukurova forme une race indigène à l'Anatolie, issue de croisements entre le cheval arabe turc et le cheval circassien, complétés par l'influence du poney anatolien. La formation de la race est estimée remonter à 1894, sous l'Empire ottoman, dans un haras du même nom. Un type plus grand, toisant 1,50 m à 1,54 m, a été développé pour la Première Guerre mondiale, mais ce type de la race est désormais perdu. Un nouveau type, plus petit, a été développé à partir de 1935.
+En 2003, le Çukurova a été reconnu en danger d'extinction. Il n'existe en 2007 ni registre généalogique formel ni association de race, mais les éleveurs espèrent que le gouvernement turc reconnaîtra bientôt officiellement la race.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%87ukurova_(cheval)</t>
+          <t>Çukurova_(cheval)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien type mesurant 1,50 m à 1,60 m en moyenne d'après l'étude de l'université d'Oklahoma (2007)[5] et celle de CAB International (2016)[4], il était plus grand et plus charpenté que le poney anatolien[2]. La base de données DAD-IS (d'après sa collecte de données effectuée en 1995)[1] et l'étude nationale des chevaux turcs menée en 2012[3] indiquent une taille moyenne de 1,37 m chez les femelles de la race moderne, pour un poids de 400 kg.
-Il montre de la fougue et de la rapidité[2]. La race existe en deux types, l'un adapté à la traction légère et l'autre à la selle[2]. Le type traction est davantage influencé par le poney anatolien, le type selle par le cheval arabe[2].
-Les robes habituelles sont le gris, ainsi que toutes les variantes avec gène Dun[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien type mesurant 1,50 m à 1,60 m en moyenne d'après l'étude de l'université d'Oklahoma (2007) et celle de CAB International (2016), il était plus grand et plus charpenté que le poney anatolien. La base de données DAD-IS (d'après sa collecte de données effectuée en 1995) et l'étude nationale des chevaux turcs menée en 2012 indiquent une taille moyenne de 1,37 m chez les femelles de la race moderne, pour un poids de 400 kg.
+Il montre de la fougue et de la rapidité. La race existe en deux types, l'un adapté à la traction légère et l'autre à la selle. Le type traction est davantage influencé par le poney anatolien, le type selle par le cheval arabe.
+Les robes habituelles sont le gris, ainsi que toutes les variantes avec gène Dun.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%87ukurova_(cheval)</t>
+          <t>Çukurova_(cheval)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est monté et utilisé pour la traction légère[5]. D'après DAD-IS, cette dernière forme la principale utilisation de la race[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est monté et utilisé pour la traction légère. D'après DAD-IS, cette dernière forme la principale utilisation de la race
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%87ukurova_(cheval)</t>
+          <t>Çukurova_(cheval)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est propre à la province de Çukurova, dans le sud de la Turquie[1], à laquelle il doit son nom[5]. En particulier, il est présent dans les provinces d'Adana et d'Osmaniye, des zones de basse altitude[3]. La race est considérée comme rare[5], avec environ 3 000 têtes recensées en 2007[2]. Race considérée comme locale, le niveau de menace d'extinction pesant sur elle est inconnu pour la FAO[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est propre à la province de Çukurova, dans le sud de la Turquie, à laquelle il doit son nom. En particulier, il est présent dans les provinces d'Adana et d'Osmaniye, des zones de basse altitude. La race est considérée comme rare, avec environ 3 000 têtes recensées en 2007. Race considérée comme locale, le niveau de menace d'extinction pesant sur elle est inconnu pour la FAO.
 </t>
         </is>
       </c>
